--- a/Data/Processed/Angiosperms/missing_powo_ipni/Ranunculaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Ranunculaceae.xlsx
@@ -1367,7 +1367,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mem. Soc. Ci. Nat. La Salle 16: 139, fig. 20, tab. 8. 1956 </t>
+          <t>Mem. Soc. Ci. Nat. La Salle 16: 139, fig. 20, tab. 8. 1956</t>
         </is>
       </c>
       <c r="J82" t="b">
